--- a/biology/Botanique/Stangeria_eriopus/Stangeria_eriopus.xlsx
+++ b/biology/Botanique/Stangeria_eriopus/Stangeria_eriopus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stangeria eriopus est une espèce de cycas de la famille des Zamiaceae. C’est la seule espèce du genre Stangeria, étroitement apparenté au genre australien Bowenia. Elle est présente en Afrique du Sud et au Mozambique.
 Le nom binominal vient du grec erio-, ce qui signifie « laineux » et - pus, ce qui signifie « pieds », se référant aux bases des pétioles laineux. Il a été nommé en l’honneur de William Stanger, ancien inspecteur-général de Natal.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Stangeria eriopus a des feuilles en nervation pennée, qui ont une forte ressemblance avec des feuilles de fougère ce qui la distinguent de toutes les autres Cycadales.
 L’espèce est présente sous deux formes variables :
